--- a/Data/Input/InputFile.xlsx
+++ b/Data/Input/InputFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minal\Documents\UiPath\Udemy_ZohoInvoice_CustomerCreate\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumara30\Downloads\Demo\Zoho Invoice Customer Create\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817E89E-F661-4F39-A57A-743A211B2F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88210484-A03D-4973-8A9E-36955D8E41A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BF831505-D2F0-4255-AB21-C6D6EC5E36C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF831505-D2F0-4255-AB21-C6D6EC5E36C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Creation" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -750,65 +752,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8861375-1423-4D24-9D94-C9E1E9A9C6FA}">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6328125" customWidth="1"/>
-    <col min="11" max="11" width="28.90625" customWidth="1"/>
-    <col min="12" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" customWidth="1"/>
-    <col min="16" max="16" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" customWidth="1"/>
+    <col min="12" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.21875" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.26953125" customWidth="1"/>
-    <col min="35" max="35" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.21875" customWidth="1"/>
+    <col min="35" max="35" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -966,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1421,9 +1423,9 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
